--- a/app/Plantillas/Entrada/Listado de Programas.xlsx
+++ b/app/Plantillas/Entrada/Listado de Programas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\BACKUP PLANEACION FINANCIERA\MIGUEL\Tableros Planeación Financiera\MATRÍCULAS, DESCUENTOS Y DEVOLUCIONES\1. Bases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/juanse_barrios_urosario_edu_co/Documents/Prueba/PRUEBA.Excel/Financiera/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC2D6CE-42A2-44BA-8728-E0E96830A5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DBC2D6CE-42A2-44BA-8728-E0E96830A5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EE761E1-0EAE-4409-8C47-04BB0383FF1C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="813">
   <si>
     <t>CENTRO</t>
   </si>
@@ -2473,6 +2473,9 @@
   </si>
   <si>
     <t>Esp Ext en Derecho Tributario  Convenio Cámara de comercio Casanare (Yopal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2581,7 +2584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2632,6 +2635,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3059,8 +3065,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:O379"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3272,8 +3278,8 @@
       <c r="K5" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>722</v>
+      <c r="L5" s="18" t="s">
+        <v>812</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>583</v>
@@ -19692,13 +19698,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2ECFF0A-C7A3-418C-A272-EDA0D57729A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6AC9992-C0CE-4CFC-B460-A530E54258CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A32DC5FD-182F-42AA-A17C-CC19EE8775A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3749AA84-8899-4797-865D-69E6C2950DD6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F9FFDF6-3AFB-4B4F-AA82-FFE62DAF9CA1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{738271A1-99EC-4456-9FA2-571B8EAB6710}"/>
 </file>